--- a/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.860674010340246</v>
+        <v>0.139325989659754</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.840578382427734</v>
+        <v>0.159421617572266</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0007028609623396</v>
+        <v>0.99929713903766</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5237505460867929</v>
+        <v>0.476249453913207</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.397297750070094</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.473333333333333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0170885177853691</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0091421630104319</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8956280694222249</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0249260691537762</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0065482044808393</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0497284567779193</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.244133880056574</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0002223351408987</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.146198830409357</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.140350877192982</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0002797778628877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0001166656565933</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0004323761405433</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.10864292097536</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.456808165430239</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0176470588235294</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.658823529411765</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0455083478694244</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-3.34874621324518</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.01412511494869</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0455083478694244</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.948368377630481</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7904191616766471</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.25748502994012</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0691235905309741</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.414473684210526</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0434171936923279</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.206451612903226</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.741935483870968</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0033522640511331</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7947797188097599</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.675</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0057267258489798</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0058693068605465</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0180760444696799</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.07461532050788031</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0207174191721332</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.064327485380117</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.754385964912281</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.001402116489832</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0001281284366387</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0031571401171925</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.796657096495459</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.284515920789842</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.60233918128655</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0006254966410388</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0019980972083742</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0046438387272258</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.164604379220744</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0602933127753374</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.461988304093567</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0008579013652273</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.67239010989011</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.295618609639945</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.929824561403509</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0479551495835126</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0883373221162411</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.240224129351703</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.512341341704194</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8479639830415659</v>
+        <v>0.06647086528252399</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.654545454545455</v>
+        <v>0.78</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.465</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0397551020408163</v>
+        <v>-0.0660488245931284</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0343313421502136</v>
+        <v>-0.153727667640685</v>
       </c>
       <c r="M2" t="n">
-        <v>0.159575795973378</v>
+        <v>-0.0048993363294478</v>
       </c>
       <c r="N2" t="n">
-        <v>7.95102040816326</v>
+        <v>-14.2040482995975</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.139325989659754</v>
+        <v>0.010130753851043</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.857142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.695</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0622718972756567</v>
+        <v>-0.0953262362637369</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.125934310048481</v>
+        <v>-0.194061025604743</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0324992099900927</v>
+        <v>-0.0401373626373625</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.582252428944896</v>
+        <v>-0.891315907094314</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,11 +751,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.336424107453906</v>
+        <v>0.0456398309388036</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0005641495155219</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0005217857142857</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0011287998394713</v>
+        <v>0.0012636649691922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.26832795024339</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.579153290218672</v>
+        <v>0.202289150345454</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.789473684210526</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.89346609611587</v>
+        <v>7.50809671694765</v>
       </c>
       <c r="L5" t="n">
-        <v>-26.1613688640071</v>
+        <v>-7.52995313894107</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2675859459423</v>
+        <v>41.2939859165923</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.6304237237417</v>
+        <v>8.34232968549739</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.447270309556159</v>
+        <v>0.109376269169153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.836363636363636</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.218181818181818</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.746751690867941</v>
+        <v>0.997555054093367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.350877192982456</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="H7" t="n">
         <v>0.12280701754386</v>
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0002128260427658</v>
+        <v>-0.0005487634127418</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,21 +1111,21 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.740425700503797</v>
+        <v>0.294463635674239</v>
       </c>
       <c r="G8" t="n">
-        <v>0.228070175438596</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H8" t="n">
-        <v>0.754385964912281</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.188</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.001023624848158</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0108183936259183</v>
+        <v>-0.0121032477081825</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0351077416051925</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.544481302211702</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.159421617572266</v>
+        <v>0.0085009776156329</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.803571428571429</v>
+        <v>0.773584905660377</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.655</v>
+        <v>7.68</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0249663952119309</v>
+        <v>-0.06398553782415239</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07363693192942861</v>
+        <v>-0.114840959035392</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0187434759951084</v>
+        <v>-0.0178388278388279</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.326144940717582</v>
+        <v>-0.833145023751984</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.703241013280014</v>
+        <v>0.005930947734156</v>
       </c>
       <c r="G10" t="n">
         <v>0.0350877192982456</v>
@@ -1309,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0039853371863985</v>
+        <v>0.0227278272455479</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.013958494976881</v>
+        <v>0.0070507334931685</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0069512834090897</v>
+        <v>0.0329548872180451</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.01279655878713</v>
+        <v>11.363913622774</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.647674269442917</v>
+        <v>0.0332287100084656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.56140350877193</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>0.39</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.864292237756475</v>
+        <v>0.0162637937720174</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.50858516483516</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25385629589371</v>
+        <v>0.0418764268463522</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.2024353146373</v>
+        <v>4.17020353128652</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8564262987129591</v>
+        <v>0.0597800124083861</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.684210526315789</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38</v>
+        <v>0.032</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0134242359364128</v>
+        <v>0.0031074278536595</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0386019298110957</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0066469517743403</v>
+        <v>0.0072152971871734</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.53269366747705</v>
+        <v>9.710712042686151</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.0567181904180913</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.649122807017544</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.032</v>
+        <v>7.97</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.961894053527118</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0033431671264845</v>
+        <v>-0.0450602217458975</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0036370582978147</v>
+        <v>3.49261834070738</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>12.0689341722349</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.646872018947574</v>
+        <v>0.0541085342472279</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982456140350877</v>
+        <v>0.59</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>10.3</v>
+        <v>0.525</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.226025379621684</v>
+        <v>-0.030020773284093</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.28614274301777</v>
+        <v>-0.0656993167618132</v>
       </c>
       <c r="M14" t="n">
-        <v>1.59547002489582</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.19442116137557</v>
+        <v>-5.71824253030342</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5252523708786671</v>
+        <v>0.990690831437259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0096153846153846</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.548076923076923</v>
+        <v>0.849557522123894</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6</v>
+        <v>10.34</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0520113324175823</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.024914370988432</v>
+        <v>0.014375337453929</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0273526096068306</v>
+        <v>0.0763782882324438</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.503010951814142</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.99929713903766</v>
+        <v>0.981667108844746</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.849557522123894</v>
+        <v>0.226086956521739</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.24</v>
+        <v>0.01</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07184154499512579</v>
+        <v>-0.0002724729578515</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0378425973313606</v>
+        <v>-0.0005270562770562</v>
       </c>
       <c r="M16" t="n">
-        <v>0.119801963261178</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.701577587843025</v>
+        <v>-2.72472957851548</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8522819450590819</v>
+        <v>0.0974954875660691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="H17" t="n">
-        <v>0.208695652173913</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>89.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.99908759124088</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0004353997746255</v>
+        <v>-0.87963321704283</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>11.1125027202981</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.46825429188925</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.36948984494685</v>
+        <v>0.0499245052650827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.825688073394495</v>
       </c>
       <c r="H18" t="n">
-        <v>0.631578947368421</v>
+        <v>0.229357798165138</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>105</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>1.20105695830887</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.83565855240621</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>8.45477559369459</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.14386376981797</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.416825210701384</v>
+        <v>0.999872975179112</v>
       </c>
       <c r="G19" t="n">
-        <v>0.857142857142857</v>
+        <v>0.339130434782609</v>
       </c>
       <c r="H19" t="n">
-        <v>0.196428571428571</v>
+        <v>0.121739130434783</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001620452528837</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003623511904761</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.40150842945874</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.994456351090137</v>
+        <v>0.0167928848322764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.260869565217391</v>
+        <v>0.191304347826087</v>
       </c>
       <c r="H20" t="n">
-        <v>0.130434782608696</v>
+        <v>0.756521739130435</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.178</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0001236459038591</v>
+        <v>0.0015208361774744</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0003013313219103</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0070555777053494</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.12153012863913</v>
+        <v>0.854402346895733</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.221166799829401</v>
+        <v>0.382193492215048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.234782608695652</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.730434782608696</v>
+        <v>0.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1687</v>
+        <v>7.655</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0023771558737389</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0149081632653061</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0016188096736449</v>
+        <v>0.0117141081535859</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.0310536364956103</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_6</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.476249453913207</v>
+        <v>0.0051792251441282</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0521739130434783</v>
       </c>
       <c r="H22" t="n">
-        <v>0.619469026548673</v>
+        <v>0.843478260869565</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.66</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0044045220966084</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.014169343516598</v>
+        <v>0.0013705229105282</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0160398924979508</v>
+        <v>0.009636468176365501</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.31816952453075</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_6</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.147158126269776</v>
+        <v>0.0803581442904399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0521739130434783</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7913043478260871</v>
+        <v>0.617391304347826</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.185</v>
+        <v>0.39</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0011329972857696</v>
+        <v>0.0050011410314924</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.000681322959172</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0032723896565471</v>
+        <v>0.0133282357347602</v>
       </c>
       <c r="N23" t="n">
-        <v>0.612430965280907</v>
+        <v>1.28234385422884</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.629173582278886</v>
+        <v>0.041906855126879</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0347826086956522</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.452173913043478</v>
+        <v>0.556521739130435</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>0.0305</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.142564402810304</v>
+        <v>0.0009982917663135999</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.6646951774340309</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6646951774340309</v>
+        <v>0.0020005749552797</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.18803669008587</v>
+        <v>3.27308775840535</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.320303678453913</v>
+        <v>0.205802962908884</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.678260869565217</v>
+        <v>0.982608695652174</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.38</v>
+        <v>8.57</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000799671592775</v>
+        <v>0.230789835164835</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0049943548100791</v>
+        <v>-0.0962197196405557</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008263865577226101</v>
+        <v>0.861464810330842</v>
       </c>
       <c r="N25" t="n">
-        <v>0.210439892835537</v>
+        <v>2.69299690974137</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0212623183247676</v>
+        <v>0.226488038475186</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="H26" t="n">
-        <v>0.556521739130435</v>
+        <v>0.486301369863014</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.029</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001003434065934</v>
+        <v>-0.004997947454844</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002242379230311</v>
+        <v>-0.0221583388490709</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0018932942952246</v>
+        <v>0.0052467981137391</v>
       </c>
       <c r="N26" t="n">
-        <v>3.46011746873815</v>
+        <v>-0.999589490968802</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5218264244148439</v>
+        <v>0.9713809434798349</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.973913043478261</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.880000000000001</v>
+        <v>10.235</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0059942560175054</v>
+        <v>0.0277545592705167</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.232429544056732</v>
+        <v>0.0040572651656213</v>
       </c>
       <c r="M27" t="n">
-        <v>0.474304951997607</v>
+        <v>0.0500116373854364</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0675028830800161</v>
+        <v>0.271173026580525</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0025982941661586</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.116959064327485</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.140350877192982</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.397297750070094</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.473333333333333</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.6</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0001939723844928</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0170885177853691</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0091421630104319</v>
+        <v>0.0003434816061557</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.15524871658701</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8956280694222249</v>
+        <v>0.142470491933691</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0176470588235294</v>
       </c>
       <c r="H29" t="n">
-        <v>0.833333333333333</v>
+        <v>0.623529411764706</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.21</v>
+        <v>95.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0249260691537762</v>
+        <v>1.76675293911212</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0065482044808393</v>
+        <v>-0.803760749104414</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0497284567779193</v>
+        <v>6.49282377626469</v>
       </c>
       <c r="N29" t="n">
-        <v>0.244133880056574</v>
+        <v>1.85000307760432</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0002223351408987</v>
+        <v>0.740644168631316</v>
       </c>
       <c r="G30" t="n">
-        <v>0.146198830409357</v>
+        <v>0.76969696969697</v>
       </c>
       <c r="H30" t="n">
-        <v>0.140350877192982</v>
+        <v>0.278787878787879</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0002797778628877</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001166656565933</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0004323761405433</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.10864292097536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.456808165430239</v>
+        <v>0.398692215688949</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0176470588235294</v>
+        <v>0.445121951219512</v>
       </c>
       <c r="H31" t="n">
-        <v>0.658823529411765</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>0.00225</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0455083478694244</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.34874621324518</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.01412511494869</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0455083478694244</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.948368377630481</v>
+        <v>0.0023654524124236</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7904191616766471</v>
+        <v>0.195121951219512</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25748502994012</v>
+        <v>0.74390243902439</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.1775</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.002047091075236</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0057548599011677</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.15329074661187</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0691235905309741</v>
+        <v>0.574231129068519</v>
       </c>
       <c r="G33" t="n">
-        <v>0.414473684210526</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.105263157894737</v>
+        <v>0.560240963855422</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.68</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0009284443314692</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.009558211212381</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0128083653964994</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0120891188993388</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whai_6</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0434171936923279</v>
+        <v>0.0011885175874765</v>
       </c>
       <c r="G34" t="n">
-        <v>0.206451612903226</v>
+        <v>0.0584795321637427</v>
       </c>
       <c r="H34" t="n">
-        <v>0.741935483870968</v>
+        <v>0.812865497076023</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0.173</v>
+        <v>0.181</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0027692598841376</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0033522640511331</v>
+        <v>0.0057558050444087</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.52997783654011</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7947797188097599</v>
+        <v>0.181935217802629</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.583333333333333</v>
+        <v>0.590643274853801</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.675</v>
+        <v>0.39</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0057267258489798</v>
+        <v>0.0016017895704667</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0058693068605465</v>
+        <v>-0.0014109290331984</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0180760444696799</v>
+        <v>0.006425120523626</v>
       </c>
       <c r="N35" t="n">
-        <v>0.07461532050788031</v>
+        <v>0.410715274478665</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whai_6</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0207174191721332</v>
+        <v>0.06404252029599281</v>
       </c>
       <c r="G36" t="n">
-        <v>0.064327485380117</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.754385964912281</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.176</v>
+        <v>0.031</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001402116489832</v>
+        <v>0.0005296635881191</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0001281284366387</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0031571401171925</v>
+        <v>0.0009999128233508</v>
       </c>
       <c r="N36" t="n">
-        <v>0.796657096495459</v>
+        <v>1.70859221973915</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.284515920789842</v>
+        <v>0.36782845380931</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.60233918128655</v>
+        <v>0.941520467836257</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.38</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0006254966410388</v>
+        <v>0.0381117194109641</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0019980972083742</v>
+        <v>-0.103092834117583</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0046438387272258</v>
+        <v>0.235411251796105</v>
       </c>
       <c r="N37" t="n">
-        <v>0.164604379220744</v>
+        <v>0.407176489433377</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0602933127753374</v>
+        <v>0.102029263256833</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H38" t="n">
-        <v>0.461988304093567</v>
+        <v>0.48</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0005017170329669999</v>
+        <v>-0.0079661941112322</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0200390665382626</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0008579013652273</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.67239010989011</v>
+        <v>-1.59323882224646</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.112226455031936</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.126829268292683</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.295618609639945</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.929824561403509</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>9.359999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0479551495835126</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0883373221162411</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.240224129351703</v>
+        <v>0.000175095877277</v>
       </c>
       <c r="N39" t="n">
-        <v>0.512341341704194</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3991,6 +3991,461 @@
         </is>
       </c>
       <c r="W39" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6120427941659951</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.632352941176471</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>103</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.379382786964823</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-3.11471788831698</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.00433671623142</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.368332802878469</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.616948758583107</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.262626262626263</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.003810951999851</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.17989417989418</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.002047091075236</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0046841601514944</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.12477531606377</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0039382837757643</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0536585365853659</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.7853658536585369</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0022250989948218</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.000581665896752</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.004250139452412</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.20275621341719</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.420742094617847</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9219512195121951</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0248131793478261</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0972233692487602</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.188870702518477</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.258201658145953</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
+++ b/trend_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -133,46 +133,55 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -557,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,43 +654,43 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.06647086528252399</v>
+        <v>0.006263121672419</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.78</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.465</v>
+        <v>0.21</v>
       </c>
       <c r="K2">
-        <v>-0.0660488245931284</v>
+        <v>-0.0636211295076283</v>
       </c>
       <c r="L2">
-        <v>-0.153727667640685</v>
+        <v>-0.172405856641507</v>
       </c>
       <c r="M2">
-        <v>-0.0048993363294478</v>
+        <v>-0.0210222851666056</v>
       </c>
       <c r="N2">
-        <v>-14.2040482995975</v>
+        <v>-30.2957759560135</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>1785162</v>
@@ -690,19 +699,19 @@
         <v>5595602</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,37 +731,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.010130753851043</v>
+        <v>0.037118802175518</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.875</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.695</v>
+        <v>10.51</v>
       </c>
       <c r="K3">
-        <v>-0.0953262362637369</v>
+        <v>-0.0405308661926305</v>
       </c>
       <c r="L3">
-        <v>-0.194061025604743</v>
+        <v>-0.097747828574985</v>
       </c>
       <c r="M3">
-        <v>-0.0401373626373625</v>
+        <v>-0.0046953079479435</v>
       </c>
       <c r="N3">
-        <v>-0.891315907094314</v>
+        <v>-0.385640972337112</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1785162</v>
@@ -761,19 +770,19 @@
         <v>5595602</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0456398309388036</v>
+        <v>0.009806121822703399</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -808,22 +817,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K4">
-        <v>0.0005641495155219</v>
+        <v>0.0007051158301158</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0012636649691922</v>
+        <v>0.0012277310924369</v>
       </c>
       <c r="N4">
-        <v>6.26832795024339</v>
+        <v>7.83462033462033</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1785162</v>
@@ -832,19 +841,19 @@
         <v>5595602</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,34 +873,34 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.202289150345454</v>
+        <v>0.549320788748991</v>
       </c>
       <c r="G5">
         <v>0.0350877192982456</v>
       </c>
       <c r="H5">
-        <v>0.719298245614035</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="K5">
-        <v>7.50809671694765</v>
+        <v>-1.53336328878141</v>
       </c>
       <c r="L5">
-        <v>-7.52995313894107</v>
+        <v>-22.6693480179206</v>
       </c>
       <c r="M5">
-        <v>41.2939859165923</v>
+        <v>18.1396041308817</v>
       </c>
       <c r="N5">
-        <v>8.34232968549739</v>
+        <v>-1.17951022213955</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -903,19 +912,19 @@
         <v>5595602</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,16 +944,16 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.109376269169153</v>
+        <v>0.177380017520289</v>
       </c>
       <c r="G6">
-        <v>0.759259259259259</v>
+        <v>0.735849056603774</v>
       </c>
       <c r="H6">
-        <v>0.296296296296296</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -962,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1785162</v>
@@ -974,19 +983,19 @@
         <v>5595602</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,10 +1015,10 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.997555054093367</v>
+        <v>0.999750077786501</v>
       </c>
       <c r="G7">
-        <v>0.456140350877193</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="H7">
         <v>0.12280701754386</v>
@@ -1018,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0005487634127418</v>
+        <v>-0.0003249638081413</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1033,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1785162</v>
@@ -1045,19 +1054,19 @@
         <v>5595602</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1071,13 +1080,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.294463635674239</v>
+        <v>0.406548298544044</v>
       </c>
       <c r="G8">
         <v>0.210526315789474</v>
@@ -1092,19 +1101,19 @@
         <v>0.188</v>
       </c>
       <c r="K8">
-        <v>0.001023624848158</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0121032477081825</v>
+        <v>-0.0121625264583529</v>
       </c>
       <c r="M8">
-        <v>0.0351077416051925</v>
+        <v>0.0036705686681087</v>
       </c>
       <c r="N8">
-        <v>0.544481302211702</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
         <v>43</v>
@@ -1116,19 +1125,19 @@
         <v>5595602</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1157,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0085009776156329</v>
+        <v>0.143276095212635</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.773584905660377</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.68</v>
+        <v>7.645</v>
       </c>
       <c r="K9">
-        <v>-0.06398553782415239</v>
+        <v>-0.0250992665422813</v>
       </c>
       <c r="L9">
-        <v>-0.114840959035392</v>
+        <v>-0.0688265191926916</v>
       </c>
       <c r="M9">
-        <v>-0.0178388278388279</v>
+        <v>0.0193628647519712</v>
       </c>
       <c r="N9">
-        <v>-0.833145023751984</v>
+        <v>-0.328309568898382</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1785162</v>
@@ -1187,16 +1196,16 @@
         <v>5595602</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,37 +1225,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.005930947734156</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.912280701754386</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="K10">
-        <v>0.0227278272455479</v>
+        <v>0.0010231092436974</v>
       </c>
       <c r="L10">
-        <v>0.0070507334931685</v>
+        <v>-0.0128965789000667</v>
       </c>
       <c r="M10">
-        <v>0.0329548872180451</v>
+        <v>0.009131116618176499</v>
       </c>
       <c r="N10">
-        <v>11.363913622774</v>
+        <v>0.516721840251252</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>1785162</v>
@@ -1255,19 +1264,19 @@
         <v>5595602</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,37 +1296,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0332287100084656</v>
+        <v>0.322206166884906</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.701754385964912</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>0.0162637937720174</v>
+        <v>0.0025085851648351</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.018423075674897</v>
       </c>
       <c r="M11">
-        <v>0.0418764268463522</v>
+        <v>0.0345378005955848</v>
       </c>
       <c r="N11">
-        <v>4.17020353128652</v>
+        <v>0.627146291208788</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1785162</v>
@@ -1326,19 +1335,19 @@
         <v>5595602</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,37 +1367,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0597800124083861</v>
+        <v>0.428922781187009</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.701754385964912</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="K12">
-        <v>0.0031074278536595</v>
+        <v>0.0002687923224588</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0029303139513384</v>
       </c>
       <c r="M12">
-        <v>0.0072152971871734</v>
+        <v>0.004366798358133</v>
       </c>
       <c r="N12">
-        <v>9.710712042686151</v>
+        <v>0.814522189269372</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1785162</v>
@@ -1397,19 +1406,19 @@
         <v>5595602</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,37 +1438,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0567181904180913</v>
+        <v>0.129097523791973</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982456140350877</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.97</v>
+        <v>13.1</v>
       </c>
       <c r="K13">
-        <v>0.961894053527118</v>
+        <v>0.385501697594858</v>
       </c>
       <c r="L13">
-        <v>-0.0450602217458975</v>
+        <v>-0.698787073783633</v>
       </c>
       <c r="M13">
-        <v>3.49261834070738</v>
+        <v>2.58849232873511</v>
       </c>
       <c r="N13">
-        <v>12.0689341722349</v>
+        <v>2.94276105034243</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1785162</v>
@@ -1468,19 +1477,19 @@
         <v>5595602</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1509,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0541085342472279</v>
+        <v>0.027657419878083</v>
       </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="H14">
-        <v>0.59</v>
+        <v>0.616161616161616</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.525</v>
+        <v>0.395</v>
       </c>
       <c r="K14">
-        <v>-0.030020773284093</v>
+        <v>-0.0250858516483517</v>
       </c>
       <c r="L14">
-        <v>-0.0656993167618132</v>
+        <v>-0.057404370266329</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.0020590755265838</v>
       </c>
       <c r="N14">
-        <v>-5.71824253030342</v>
+        <v>-6.35084851857004</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1785162</v>
@@ -1539,19 +1548,19 @@
         <v>5595602</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,37 +1580,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.990690831437259</v>
+        <v>0.555717260421046</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.849557522123894</v>
+        <v>0.858407079646018</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.34</v>
+        <v>10.35</v>
       </c>
       <c r="K15">
-        <v>0.0520113324175823</v>
+        <v>0.0016670470104976</v>
       </c>
       <c r="L15">
-        <v>0.014375337453929</v>
+        <v>-0.0243012650731618</v>
       </c>
       <c r="M15">
-        <v>0.0763782882324438</v>
+        <v>0.0507525428718913</v>
       </c>
       <c r="N15">
-        <v>0.503010951814142</v>
+        <v>0.016106734400943</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1785162</v>
@@ -1610,19 +1619,19 @@
         <v>5595602</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,13 +1651,13 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.981667108844746</v>
+        <v>0.964475787721164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.226086956521739</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1657,22 +1666,22 @@
         <v>0.01</v>
       </c>
       <c r="K16">
-        <v>-0.0002724729578515</v>
+        <v>-0.0002210956416464</v>
       </c>
       <c r="L16">
-        <v>-0.0005270562770562</v>
+        <v>-0.0004729344354838</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-2.72472957851548</v>
+        <v>-2.21095641646489</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1785162</v>
@@ -1681,19 +1690,19 @@
         <v>5595602</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,37 +1722,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.0974954875660691</v>
+        <v>0.263708733618463</v>
       </c>
       <c r="G17">
         <v>0.0263157894736842</v>
       </c>
       <c r="H17">
-        <v>0.578947368421053</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>89.5</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>3.99908759124088</v>
+        <v>2.2961383026493</v>
       </c>
       <c r="L17">
-        <v>-0.87963321704283</v>
+        <v>-3.87554725885535</v>
       </c>
       <c r="M17">
-        <v>11.1125027202981</v>
+        <v>8.7128944925051</v>
       </c>
       <c r="N17">
-        <v>4.46825429188925</v>
+        <v>2.08739845695391</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>1785162</v>
@@ -1752,19 +1761,19 @@
         <v>5595602</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0499245052650827</v>
+        <v>0.0261340049503963</v>
       </c>
       <c r="G18">
-        <v>0.825688073394495</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="H18">
-        <v>0.229357798165138</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1811,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1785162</v>
@@ -1823,19 +1832,19 @@
         <v>5595602</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,40 +1861,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.999872975179112</v>
+        <v>0.999999867503806</v>
       </c>
       <c r="G19">
-        <v>0.339130434782609</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="H19">
-        <v>0.121739130434783</v>
+        <v>0.11304347826087</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K19">
-        <v>-0.0001620452528837</v>
+        <v>-0.0002404542462146</v>
       </c>
       <c r="L19">
-        <v>-0.0003623511904761</v>
+        <v>-0.0004224985540775</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-5.40150842945874</v>
+        <v>-12.0227123107307</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1785162</v>
@@ -1894,19 +1903,19 @@
         <v>5595602</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.0167928848322764</v>
+        <v>0.230901315889655</v>
       </c>
       <c r="G20">
-        <v>0.191304347826087</v>
+        <v>0.182608695652174</v>
       </c>
       <c r="H20">
         <v>0.756521739130435</v>
@@ -1938,25 +1947,25 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.178</v>
+        <v>0.17</v>
       </c>
       <c r="K20">
-        <v>0.0015208361774744</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0070555777053494</v>
+        <v>0.0021674209561664</v>
       </c>
       <c r="N20">
-        <v>0.854402346895733</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1785162</v>
@@ -1965,19 +1974,19 @@
         <v>5595602</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,37 +2006,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.382193492215048</v>
+        <v>0.22217792749517</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.587155963302752</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.655</v>
+        <v>7.66</v>
       </c>
       <c r="K21">
-        <v>-0.0023771558737389</v>
+        <v>-0.0066895604395603</v>
       </c>
       <c r="L21">
-        <v>-0.0149081632653061</v>
+        <v>-0.0197629609804699</v>
       </c>
       <c r="M21">
-        <v>0.0117141081535859</v>
+        <v>0.0080621301228495</v>
       </c>
       <c r="N21">
-        <v>-0.0310536364956103</v>
+        <v>-0.0873310762344686</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1785162</v>
@@ -2036,16 +2045,16 @@
         <v>5595602</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0051792251441282</v>
+        <v>0.154245974120945</v>
       </c>
       <c r="G22">
         <v>0.0521739130434783</v>
@@ -2077,25 +2086,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="K22">
-        <v>0.0044045220966084</v>
+        <v>0.001505151098901</v>
       </c>
       <c r="L22">
-        <v>0.0013705229105282</v>
+        <v>-0.0011964357226083</v>
       </c>
       <c r="M22">
-        <v>0.009636468176365501</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N22">
-        <v>2.31816952453075</v>
+        <v>0.813595188595186</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1785162</v>
@@ -2104,19 +2113,19 @@
         <v>5595602</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,16 +2142,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0803581442904399</v>
+        <v>0.478041725941976</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.617391304347826</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2151,22 +2160,22 @@
         <v>0.39</v>
       </c>
       <c r="K23">
-        <v>0.0050011410314924</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0049961074235282</v>
       </c>
       <c r="M23">
-        <v>0.0133282357347602</v>
+        <v>0.0073050310399914</v>
       </c>
       <c r="N23">
-        <v>1.28234385422884</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1785162</v>
@@ -2175,19 +2184,19 @@
         <v>5595602</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,37 +2216,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.041906855126879</v>
+        <v>0.2711373271431</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.556521739130435</v>
+        <v>0.547826086956522</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0305</v>
+        <v>0.031</v>
       </c>
       <c r="K24">
-        <v>0.0009982917663135999</v>
+        <v>0.0003983097055616</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0005896502939787</v>
       </c>
       <c r="M24">
-        <v>0.0020005749552797</v>
+        <v>0.0013987185525153</v>
       </c>
       <c r="N24">
-        <v>3.27308775840535</v>
+        <v>1.28487001794069</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q24">
         <v>1785162</v>
@@ -2246,19 +2255,19 @@
         <v>5595602</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,7 +2287,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.205802962908884</v>
+        <v>0.413343633542305</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2290,22 +2299,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.57</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K25">
-        <v>0.230789835164835</v>
+        <v>0.0499316473000686</v>
       </c>
       <c r="L25">
-        <v>-0.0962197196405557</v>
+        <v>-0.260166413930528</v>
       </c>
       <c r="M25">
-        <v>0.861464810330842</v>
+        <v>0.631026063210866</v>
       </c>
       <c r="N25">
-        <v>2.69299690974137</v>
+        <v>0.562293325451223</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P25" t="s">
         <v>43</v>
@@ -2317,19 +2326,19 @@
         <v>5595602</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,37 +2358,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.226488038475186</v>
+        <v>0.132255487835999</v>
       </c>
       <c r="G26">
-        <v>0.0136986301369863</v>
+        <v>0.0135135135135135</v>
       </c>
       <c r="H26">
-        <v>0.486301369863014</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>0.4275</v>
       </c>
       <c r="K26">
-        <v>-0.004997947454844</v>
+        <v>-0.0057181996086105</v>
       </c>
       <c r="L26">
-        <v>-0.0221583388490709</v>
+        <v>-0.0200134278477258</v>
       </c>
       <c r="M26">
-        <v>0.0052467981137391</v>
+        <v>0.0019912658512908</v>
       </c>
       <c r="N26">
-        <v>-0.999589490968802</v>
+        <v>-1.33759055172177</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1785162</v>
@@ -2388,19 +2397,19 @@
         <v>5595602</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,34 +2429,34 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.9713809434798349</v>
+        <v>0.988912309707086</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.803571428571429</v>
+        <v>0.795321637426901</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.235</v>
+        <v>10.25</v>
       </c>
       <c r="K27">
-        <v>0.0277545592705167</v>
+        <v>0.0299829172844978</v>
       </c>
       <c r="L27">
-        <v>0.0040572651656213</v>
+        <v>0.008438451151353501</v>
       </c>
       <c r="M27">
-        <v>0.0500116373854364</v>
+        <v>0.0516132317049503</v>
       </c>
       <c r="N27">
-        <v>0.271173026580525</v>
+        <v>0.292516266190222</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" t="s">
         <v>50</v>
@@ -2459,19 +2468,19 @@
         <v>5595602</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,13 +2500,13 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0025982941661586</v>
+        <v>0.0534446188950172</v>
       </c>
       <c r="G28">
-        <v>0.116959064327485</v>
+        <v>0.109195402298851</v>
       </c>
       <c r="H28">
-        <v>0.140350877192982</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2506,22 +2515,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K28">
-        <v>0.0001939723844928</v>
+        <v>8.10226264418811E-05</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0003434816061557</v>
+        <v>0.0002212340766652</v>
       </c>
       <c r="N28">
-        <v>2.15524871658701</v>
+        <v>0.9002514049097901</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1785162</v>
@@ -2530,19 +2539,19 @@
         <v>5595602</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,37 +2571,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.142470491933691</v>
+        <v>0.190131301028029</v>
       </c>
       <c r="G29">
-        <v>0.0176470588235294</v>
+        <v>0.0173410404624277</v>
       </c>
       <c r="H29">
-        <v>0.623529411764706</v>
+        <v>0.664739884393064</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>95.5</v>
+        <v>106</v>
       </c>
       <c r="K29">
-        <v>1.76675293911212</v>
+        <v>1.18222290915518</v>
       </c>
       <c r="L29">
-        <v>-0.803760749104414</v>
+        <v>-1.00099373449477</v>
       </c>
       <c r="M29">
-        <v>6.49282377626469</v>
+        <v>6.1850511044903</v>
       </c>
       <c r="N29">
-        <v>1.85000307760432</v>
+        <v>1.11530463127848</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1785162</v>
@@ -2601,19 +2610,19 @@
         <v>5595602</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,13 +2642,13 @@
         <v>38</v>
       </c>
       <c r="F30">
-        <v>0.740644168631316</v>
+        <v>0.787775216072474</v>
       </c>
       <c r="G30">
-        <v>0.76969696969697</v>
+        <v>0.760479041916168</v>
       </c>
       <c r="H30">
-        <v>0.278787878787879</v>
+        <v>0.287425149700599</v>
       </c>
       <c r="I30">
         <v>9</v>
@@ -2660,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q30">
         <v>1785162</v>
@@ -2672,19 +2681,19 @@
         <v>5595602</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,19 +2713,19 @@
         <v>38</v>
       </c>
       <c r="F31">
-        <v>0.398692215688949</v>
+        <v>0.879338465705407</v>
       </c>
       <c r="G31">
-        <v>0.445121951219512</v>
+        <v>0.471264367816092</v>
       </c>
       <c r="H31">
-        <v>0.0975609756097561</v>
+        <v>0.0919540229885057</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.00225</v>
+        <v>0.002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2731,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
         <v>52</v>
@@ -2743,19 +2752,19 @@
         <v>5595602</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,40 +2781,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32">
-        <v>0.0023654524124236</v>
+        <v>0.032894310706791</v>
       </c>
       <c r="G32">
-        <v>0.195121951219512</v>
+        <v>0.195402298850575</v>
       </c>
       <c r="H32">
-        <v>0.74390243902439</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.1775</v>
+        <v>0.16735</v>
       </c>
       <c r="K32">
-        <v>0.002047091075236</v>
+        <v>0.0002497778046212</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0057548599011677</v>
+        <v>0.0024946032368034</v>
       </c>
       <c r="N32">
-        <v>1.15329074661187</v>
+        <v>0.149254738345546</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1785162</v>
@@ -2814,19 +2823,19 @@
         <v>5595602</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,37 +2855,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.574231129068519</v>
+        <v>0.084825747924948</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.560240963855422</v>
+        <v>0.505952380952381</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.68</v>
+        <v>7.69</v>
       </c>
       <c r="K33">
-        <v>0.0009284443314692</v>
+        <v>-0.0075077081192189</v>
       </c>
       <c r="L33">
-        <v>-0.009558211212381</v>
+        <v>-0.0159823587527061</v>
       </c>
       <c r="M33">
-        <v>0.0128083653964994</v>
+        <v>0.0011156401125503</v>
       </c>
       <c r="N33">
-        <v>0.0120891188993388</v>
+        <v>-0.09762949439816571</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1785162</v>
@@ -2885,16 +2894,16 @@
         <v>5595602</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,40 +2920,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0011885175874765</v>
+        <v>0.0261956510755114</v>
       </c>
       <c r="G34">
-        <v>0.0584795321637427</v>
+        <v>0.0402298850574713</v>
       </c>
       <c r="H34">
-        <v>0.812865497076023</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0.181</v>
+        <v>0.1805</v>
       </c>
       <c r="K34">
-        <v>0.0027692598841376</v>
+        <v>0.0015029424052517</v>
       </c>
       <c r="L34">
-        <v>0.001003434065934</v>
+        <v>0.0002006868131868</v>
       </c>
       <c r="M34">
-        <v>0.0057558050444087</v>
+        <v>0.0031936177627075</v>
       </c>
       <c r="N34">
-        <v>1.52997783654011</v>
+        <v>0.83265507216164</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1785162</v>
@@ -2953,19 +2962,19 @@
         <v>5595602</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2982,37 +2991,37 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F35">
-        <v>0.181935217802629</v>
+        <v>0.623922233766238</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.590643274853801</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="K35">
-        <v>0.0016017895704667</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0014109290331984</v>
+        <v>-0.0048554976469015</v>
       </c>
       <c r="M35">
-        <v>0.006425120523626</v>
+        <v>0.0022203647416413</v>
       </c>
       <c r="N35">
-        <v>0.410715274478665</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P35" t="s">
         <v>43</v>
@@ -3024,19 +3033,19 @@
         <v>5595602</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,37 +3065,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.06404252029599281</v>
+        <v>0.179957627792359</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.491228070175439</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.031</v>
+        <v>0.03075</v>
       </c>
       <c r="K36">
-        <v>0.0005296635881191</v>
+        <v>0.000386398530156</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0001991548527808</v>
       </c>
       <c r="M36">
-        <v>0.0009999128233508</v>
+        <v>0.0008528140692483</v>
       </c>
       <c r="N36">
-        <v>1.70859221973915</v>
+        <v>1.25658058587338</v>
       </c>
       <c r="O36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1785162</v>
@@ -3095,19 +3104,19 @@
         <v>5595602</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,37 +3136,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.36782845380931</v>
+        <v>0.6292081696094181</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.941520467836257</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>9.359999999999999</v>
+        <v>9.635</v>
       </c>
       <c r="K37">
-        <v>0.0381117194109641</v>
+        <v>-0.0270493433903812</v>
       </c>
       <c r="L37">
-        <v>-0.103092834117583</v>
+        <v>-0.185615842415263</v>
       </c>
       <c r="M37">
-        <v>0.235411251796105</v>
+        <v>0.172537857507044</v>
       </c>
       <c r="N37">
-        <v>0.407176489433377</v>
+        <v>-0.280740460720096</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q37">
         <v>1785162</v>
@@ -3166,19 +3175,19 @@
         <v>5595602</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3198,13 +3207,13 @@
         <v>36</v>
       </c>
       <c r="F38">
-        <v>0.102029263256833</v>
+        <v>0.020849859705395</v>
       </c>
       <c r="G38">
-        <v>0.0171428571428571</v>
+        <v>0.0164835164835165</v>
       </c>
       <c r="H38">
-        <v>0.48</v>
+        <v>0.478021978021978</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3213,22 +3222,22 @@
         <v>0.5</v>
       </c>
       <c r="K38">
-        <v>-0.0079661941112322</v>
+        <v>-0.009986338604803</v>
       </c>
       <c r="L38">
-        <v>-0.0200390665382626</v>
+        <v>-0.0215037963570712</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-0.000555894141822</v>
       </c>
       <c r="N38">
-        <v>-1.59323882224646</v>
+        <v>-1.99726772096061</v>
       </c>
       <c r="O38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1785162</v>
@@ -3237,19 +3246,19 @@
         <v>5595602</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,49 +3266,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39">
-        <v>0.112226455031936</v>
+        <v>0.896364285336495</v>
       </c>
       <c r="G39">
-        <v>0.126829268292683</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.146341463414634</v>
+        <v>0.788659793814433</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.008999999999999999</v>
+        <v>10.245</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.0159846827133478</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.0033704240288924</v>
       </c>
       <c r="M39">
-        <v>0.000175095877277</v>
+        <v>0.0377759001877158</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.156024233414815</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q39">
         <v>1785162</v>
@@ -3308,19 +3317,19 @@
         <v>5595602</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,49 +3337,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40">
-        <v>0.6120427941659951</v>
+        <v>0.207763659298191</v>
       </c>
       <c r="G40">
-        <v>0.0196078431372549</v>
+        <v>0.124423963133641</v>
       </c>
       <c r="H40">
-        <v>0.632352941176471</v>
+        <v>0.138248847926267</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>103</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K40">
-        <v>-0.379382786964823</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-3.11471788831698</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>2.00433671623142</v>
+        <v>0.0001269182003122</v>
       </c>
       <c r="N40">
-        <v>-0.368332802878469</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q40">
         <v>1785162</v>
@@ -3379,19 +3388,19 @@
         <v>5595602</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,49 +3408,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
       <c r="F41">
-        <v>0.616948758583107</v>
+        <v>0.482598052476325</v>
       </c>
       <c r="G41">
-        <v>0.777777777777778</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="H41">
-        <v>0.262626262626263</v>
+        <v>0.675925925925926</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.005</v>
+        <v>109.5</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-2.46346999129338</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>2.29220378467572</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q41">
         <v>1785162</v>
@@ -3450,19 +3459,19 @@
         <v>5595602</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,49 +3479,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42">
-        <v>0.003810951999851</v>
+        <v>0.544244671313886</v>
       </c>
       <c r="G42">
-        <v>0.17989417989418</v>
+        <v>0.77511961722488</v>
       </c>
       <c r="H42">
-        <v>0.746031746031746</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J42">
-        <v>0.182</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>0.002047091075236</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.0046841601514944</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1.12477531606377</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q42">
         <v>1785162</v>
@@ -3521,19 +3530,19 @@
         <v>5595602</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3541,7 +3550,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3550,40 +3559,40 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F43">
-        <v>0.0039382837757643</v>
+        <v>0.0248070677371725</v>
       </c>
       <c r="G43">
-        <v>0.0536585365853659</v>
+        <v>0.17910447761194</v>
       </c>
       <c r="H43">
-        <v>0.7853658536585369</v>
+        <v>0.73134328358209</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0.185</v>
+        <v>0.173</v>
       </c>
       <c r="K43">
-        <v>0.0022250989948218</v>
+        <v>0.00067215210051</v>
       </c>
       <c r="L43">
-        <v>0.000581665896752</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.004250139452412</v>
+        <v>0.0029119282557717</v>
       </c>
       <c r="N43">
-        <v>1.20275621341719</v>
+        <v>0.388527225728376</v>
       </c>
       <c r="O43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>1785162</v>
@@ -3592,19 +3601,19 @@
         <v>5595602</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3612,49 +3621,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
       </c>
       <c r="F44">
-        <v>0.420742094617847</v>
+        <v>0.944689879719855</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.9219512195121951</v>
+        <v>0.5303030303030301</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>9.609999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="K44">
-        <v>0.0248131793478261</v>
+        <v>0.0081347438752784</v>
       </c>
       <c r="L44">
-        <v>-0.0972233692487602</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.188870702518477</v>
+        <v>0.0167468341523008</v>
       </c>
       <c r="N44">
-        <v>0.258201658145953</v>
+        <v>0.106197700721651</v>
       </c>
       <c r="O44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q44">
         <v>1785162</v>
@@ -3663,19 +3672,300 @@
         <v>5595602</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>56</v>
-      </c>
-      <c r="W44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>0.0153147983396489</v>
+      </c>
+      <c r="G45">
+        <v>0.0506912442396313</v>
+      </c>
+      <c r="H45">
+        <v>0.788018433179724</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0.18</v>
+      </c>
+      <c r="K45">
+        <v>0.0013706022884953</v>
+      </c>
+      <c r="L45">
+        <v>0.0001998103910483</v>
+      </c>
+      <c r="M45">
+        <v>0.0028479257621184</v>
+      </c>
+      <c r="N45">
+        <v>0.7614457158307441</v>
+      </c>
+      <c r="O45" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45">
+        <v>1785162</v>
+      </c>
+      <c r="R45">
+        <v>5595602</v>
+      </c>
+      <c r="S45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" t="s">
+        <v>58</v>
+      </c>
+      <c r="V45" t="s">
+        <v>59</v>
+      </c>
+      <c r="W45" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>0.225103740825332</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.526829268292683</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.39</v>
+      </c>
+      <c r="K46">
+        <v>0.000799671592775</v>
+      </c>
+      <c r="L46">
+        <v>-0.0014049119293215</v>
+      </c>
+      <c r="M46">
+        <v>0.0038807293058172</v>
+      </c>
+      <c r="N46">
+        <v>0.205043998147447</v>
+      </c>
+      <c r="O46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>1785162</v>
+      </c>
+      <c r="R46">
+        <v>5595602</v>
+      </c>
+      <c r="S46" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" t="s">
+        <v>58</v>
+      </c>
+      <c r="V46" t="s">
+        <v>59</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>0.318710993629915</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.453658536585366</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.032</v>
+      </c>
+      <c r="K47">
+        <v>0.0001667047010497</v>
+      </c>
+      <c r="L47">
+        <v>-0.0002725971954675</v>
+      </c>
+      <c r="M47">
+        <v>0.0005997536945812</v>
+      </c>
+      <c r="N47">
+        <v>0.520952190780465</v>
+      </c>
+      <c r="O47" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>1785162</v>
+      </c>
+      <c r="R47">
+        <v>5595602</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>58</v>
+      </c>
+      <c r="V47" t="s">
+        <v>59</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <v>0.456894916498935</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.921658986175115</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>0.0082311329322696</v>
+      </c>
+      <c r="L48">
+        <v>-0.0967605815221432</v>
+      </c>
+      <c r="M48">
+        <v>0.153823492637442</v>
+      </c>
+      <c r="N48">
+        <v>0.0823113293226964</v>
+      </c>
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48">
+        <v>1785162</v>
+      </c>
+      <c r="R48">
+        <v>5595602</v>
+      </c>
+      <c r="S48" t="s">
+        <v>56</v>
+      </c>
+      <c r="T48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" t="s">
+        <v>58</v>
+      </c>
+      <c r="V48" t="s">
+        <v>59</v>
+      </c>
+      <c r="W48" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
